--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_securities_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_securities_update.xlsx
@@ -719,7 +719,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1710</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1726</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1737</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
